--- a/medicine/Psychotrope/Malt/Malt.xlsx
+++ b/medicine/Psychotrope/Malt/Malt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le malt[1] est une céréale germée, le plus souvent de l'orge, qui est cuite afin de dégager tous ses arômes. Le malt est utilisé pour la fabrication de boissons alcoolisées telles que le whisky, le genièvre et surtout la bière.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le malt est une céréale germée, le plus souvent de l'orge, qui est cuite afin de dégager tous ses arômes. Le malt est utilisé pour la fabrication de boissons alcoolisées telles que le whisky, le genièvre et surtout la bière.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Maltage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le maltage est l'opération qui consiste à reproduire, de façon industrielle, les conditions nécessaires à l'amorçage de la germination naturelle d'une céréale, le plus souvent de l'orge – bien que le froment, le seigle ou encore le sorgho[2] et l'épeautre[3] s'y prêtent également –, afin qu'elle produise certaines enzymes et des sucres. La personne qui est chargée de cette opération est appelée le malteur.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le maltage est l'opération qui consiste à reproduire, de façon industrielle, les conditions nécessaires à l'amorçage de la germination naturelle d'une céréale, le plus souvent de l'orge – bien que le froment, le seigle ou encore le sorgho et l'épeautre s'y prêtent également –, afin qu'elle produise certaines enzymes et des sucres. La personne qui est chargée de cette opération est appelée le malteur.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une fois les conditions réunies, l'orge commence à produire des cytases, amylases, phosphatases et peptidases, toutes nécessaires à la saccharification de l'amidon, et donc, à la fabrication de l'alcool lors de la fermentation, qui lui permettent :
 de pénétrer à travers la barrière hémicellulosique du grain pour accéder à ses réserves d'amidon ;
@@ -582,7 +598,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le malt est principalement utilisé pour la fabrication de boissons alcoolisées telles que le whisky, le genièvre et surtout la bière.
 Il est aussi utilisé dans la fabrication de produits alimentaires comme le vinaigre de malt, l'Ovomaltine (boisson chocolatée à base de malt), les corn flakes ou certains succédanés de café (malt d'orge torréfié) et en boulangerie, pour donner plus de goût à la pâte.
@@ -615,7 +633,9 @@
           <t>Extrait de malt</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'extrait de malt est une bouillie formée de farine maltée mélangée avec de l'eau et ayant subi un processus d'hydrolyse enzymatique. Les molécules contenues dans les graines de céréale maltée, généralement de l'orge malté, sont transformées par les enzymes générées lors du maltage en des molécules plus petites et plus simples, utilisables par la plante pour sa croissance. Ce mélange de molécules facilement digestibles lors de leur consommation peut être concentré après filtration, ce qui donnera un sirop appelé extrait de malt ou sirop d'orge malté. Le sirop contient essentiellement des dérivés de l'amidon (maltose principalement), des acides aminés issus de la transformation de protéines, des vitamines et des sels minéraux.
 </t>
